--- a/test/testdata/test_inputparameters_m1_l.xlsx
+++ b/test/testdata/test_inputparameters_m1_l.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dokumente\MARS\design-methods\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dokumente\MARS\mars-softwaredemonstrator\test\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Input_variables" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="154">
   <si>
     <t>0.3</t>
   </si>
@@ -53,18 +53,12 @@
     <t>f_y</t>
   </si>
   <si>
-    <t>Wheel materials</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
     <t>norm</t>
   </si>
   <si>
-    <t>material number</t>
-  </si>
-  <si>
     <t>hardened</t>
   </si>
   <si>
@@ -92,9 +86,6 @@
     <t>EN10083-3</t>
   </si>
   <si>
-    <t>Rail materials</t>
-  </si>
-  <si>
     <t>S235</t>
   </si>
   <si>
@@ -146,9 +137,6 @@
     <t>Konfiguration</t>
   </si>
   <si>
-    <t>add the desired material and its parameteres if it is not among the materials below</t>
-  </si>
-  <si>
     <t>GE-300</t>
   </si>
   <si>
@@ -504,6 +492,9 @@
   </si>
   <si>
     <t>f_ff_rail</t>
+  </si>
+  <si>
+    <t>material_number</t>
   </si>
 </sst>
 </file>
@@ -513,9 +504,9 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
-    <numFmt numFmtId="177" formatCode="0.00000000000000000"/>
+    <numFmt numFmtId="166" formatCode="0.00000000000000000"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -556,21 +547,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -585,7 +562,7 @@
       <name val="Consolas"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -606,11 +583,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
     <fill>
@@ -725,14 +697,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -759,10 +730,10 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -774,55 +745,45 @@
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="4">
     <cellStyle name="Eingabe" xfId="1" builtinId="20"/>
     <cellStyle name="Gut" xfId="2" builtinId="26"/>
-    <cellStyle name="Neutral" xfId="4" builtinId="28"/>
-    <cellStyle name="Schlecht" xfId="3" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="23">
@@ -1090,12 +1051,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="railmaterials" displayName="railmaterials" ref="A2:I9" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21" headerRowCellStyle="Gut">
-  <autoFilter ref="A2:I9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="railmaterials" displayName="railmaterials" ref="A1:I8" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21" headerRowCellStyle="Gut">
+  <autoFilter ref="A1:I8"/>
   <tableColumns count="9">
     <tableColumn id="1" name="name" dataDxfId="20"/>
     <tableColumn id="2" name="norm" dataDxfId="19"/>
-    <tableColumn id="3" name="material number" dataDxfId="18"/>
+    <tableColumn id="3" name="material_number" dataDxfId="18"/>
     <tableColumn id="4" name="hardened" dataDxfId="17"/>
     <tableColumn id="5" name="f_y" dataDxfId="16"/>
     <tableColumn id="6" name="HB" dataDxfId="15"/>
@@ -1108,12 +1069,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="wheelmaterials4" displayName="wheelmaterials4" ref="A2:J11" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" headerRowCellStyle="Gut">
-  <autoFilter ref="A2:J11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="wheelmaterials4" displayName="wheelmaterials4" ref="A1:J10" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" headerRowCellStyle="Gut">
+  <autoFilter ref="A1:J10"/>
   <tableColumns count="10">
     <tableColumn id="1" name="name" dataDxfId="9"/>
     <tableColumn id="2" name="norm" dataDxfId="8"/>
-    <tableColumn id="3" name="material number" dataDxfId="7"/>
+    <tableColumn id="3" name="material_number" dataDxfId="7"/>
     <tableColumn id="4" name="hardened" dataDxfId="6"/>
     <tableColumn id="9" name="z" dataDxfId="5"/>
     <tableColumn id="5" name="f_y" dataDxfId="4"/>
@@ -1425,7 +1386,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E18" workbookViewId="0">
+    <sheetView topLeftCell="E18" workbookViewId="0">
       <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
@@ -1444,7 +1405,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B1" s="10">
         <v>1</v>
@@ -1589,7 +1550,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B6" s="3">
         <v>10</v>
@@ -1618,7 +1579,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B7" s="3">
         <v>10</v>
@@ -1647,7 +1608,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B8" s="3">
         <v>10</v>
@@ -1676,7 +1637,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B9" s="3">
         <v>2000</v>
@@ -1705,7 +1666,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B10" s="3">
         <v>5.0000000000000001E-3</v>
@@ -1734,36 +1695,36 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B12" s="3">
         <v>1</v>
@@ -1792,7 +1753,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B13" s="3">
         <v>0.95</v>
@@ -1821,65 +1782,65 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>38</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B16" s="3">
         <v>30000</v>
@@ -1908,7 +1869,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B17" s="3">
         <v>20000</v>
@@ -1937,7 +1898,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B18" s="3">
         <v>100000</v>
@@ -1966,94 +1927,94 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B19" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C19" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D19" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E19" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F19" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G19" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H19" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I19" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B20" s="17">
+        <v>106</v>
+      </c>
+      <c r="B20" s="16">
         <v>225</v>
       </c>
-      <c r="C20" s="17">
+      <c r="C20" s="16">
         <v>125</v>
       </c>
-      <c r="D20" s="17">
+      <c r="D20" s="16">
         <v>190</v>
       </c>
-      <c r="E20" s="17">
+      <c r="E20" s="16">
         <v>190</v>
       </c>
-      <c r="F20" s="17">
+      <c r="F20" s="16">
         <v>260</v>
       </c>
-      <c r="G20" s="17">
+      <c r="G20" s="16">
         <v>260</v>
       </c>
-      <c r="H20" s="17">
+      <c r="H20" s="16">
         <v>125</v>
       </c>
-      <c r="I20" s="17">
+      <c r="I20" s="16">
         <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B21" s="21">
+        <v>105</v>
+      </c>
+      <c r="B21" s="20">
         <v>255</v>
       </c>
-      <c r="C21" s="21">
+      <c r="C21" s="20">
         <v>255</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D21" s="20">
         <v>250</v>
       </c>
-      <c r="E21" s="21">
+      <c r="E21" s="20">
         <v>250</v>
       </c>
-      <c r="F21" s="21">
+      <c r="F21" s="20">
         <v>210</v>
       </c>
-      <c r="G21" s="21">
+      <c r="G21" s="20">
         <v>210</v>
       </c>
-      <c r="H21" s="21">
+      <c r="H21" s="20">
         <v>1000</v>
       </c>
-      <c r="I21" s="21">
+      <c r="I21" s="20">
         <v>1000</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -2082,268 +2043,268 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B23" s="20">
-        <v>1</v>
-      </c>
-      <c r="C23" s="20">
-        <v>1</v>
-      </c>
-      <c r="D23" s="20">
-        <v>1</v>
-      </c>
-      <c r="E23" s="20">
-        <v>1</v>
-      </c>
-      <c r="F23" s="20">
-        <v>0</v>
-      </c>
-      <c r="G23" s="20">
-        <v>0</v>
-      </c>
-      <c r="H23" s="20">
-        <v>0</v>
-      </c>
-      <c r="I23" s="20">
+        <v>103</v>
+      </c>
+      <c r="B23" s="19">
+        <v>1</v>
+      </c>
+      <c r="C23" s="19">
+        <v>1</v>
+      </c>
+      <c r="D23" s="19">
+        <v>1</v>
+      </c>
+      <c r="E23" s="19">
+        <v>1</v>
+      </c>
+      <c r="F23" s="19">
+        <v>0</v>
+      </c>
+      <c r="G23" s="19">
+        <v>0</v>
+      </c>
+      <c r="H23" s="19">
+        <v>0</v>
+      </c>
+      <c r="I23" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B24" s="17">
+        <v>102</v>
+      </c>
+      <c r="B24" s="16">
         <v>210000</v>
       </c>
-      <c r="C24" s="17">
+      <c r="C24" s="16">
         <v>210000</v>
       </c>
-      <c r="D24" s="17">
+      <c r="D24" s="16">
         <v>210000</v>
       </c>
-      <c r="E24" s="17">
+      <c r="E24" s="16">
         <v>210000</v>
       </c>
-      <c r="F24" s="17">
+      <c r="F24" s="16">
         <v>210000</v>
       </c>
-      <c r="G24" s="17">
+      <c r="G24" s="16">
         <v>210000</v>
       </c>
-      <c r="H24" s="17">
+      <c r="H24" s="16">
         <v>210000</v>
       </c>
-      <c r="I24" s="17">
+      <c r="I24" s="16">
         <v>210000</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B25" s="20">
+        <v>101</v>
+      </c>
+      <c r="B25" s="19">
         <v>210000</v>
       </c>
-      <c r="C25" s="20">
+      <c r="C25" s="19">
         <v>210000</v>
       </c>
-      <c r="D25" s="20">
+      <c r="D25" s="19">
         <v>210000</v>
       </c>
-      <c r="E25" s="20">
+      <c r="E25" s="19">
         <v>210000</v>
       </c>
-      <c r="F25" s="20">
+      <c r="F25" s="19">
         <v>180000</v>
       </c>
-      <c r="G25" s="20">
+      <c r="G25" s="19">
         <v>180000</v>
       </c>
-      <c r="H25" s="20">
+      <c r="H25" s="19">
         <v>210000</v>
       </c>
-      <c r="I25" s="20">
+      <c r="I25" s="19">
         <v>210000</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B26" s="18">
-        <v>0</v>
-      </c>
-      <c r="C26" s="18">
-        <v>0</v>
-      </c>
-      <c r="D26" s="18">
-        <v>0</v>
-      </c>
-      <c r="E26" s="18">
-        <v>0</v>
-      </c>
-      <c r="F26" s="18">
-        <v>0</v>
-      </c>
-      <c r="G26" s="18">
-        <v>0</v>
-      </c>
-      <c r="H26" s="18">
-        <v>0</v>
-      </c>
-      <c r="I26" s="18">
+        <v>136</v>
+      </c>
+      <c r="B26" s="17">
+        <v>0</v>
+      </c>
+      <c r="C26" s="17">
+        <v>0</v>
+      </c>
+      <c r="D26" s="17">
+        <v>0</v>
+      </c>
+      <c r="E26" s="17">
+        <v>0</v>
+      </c>
+      <c r="F26" s="17">
+        <v>0</v>
+      </c>
+      <c r="G26" s="17">
+        <v>0</v>
+      </c>
+      <c r="H26" s="17">
+        <v>0</v>
+      </c>
+      <c r="I26" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="B27" s="20">
+        <v>135</v>
+      </c>
+      <c r="B27" s="19">
         <v>10</v>
       </c>
-      <c r="C27" s="20">
+      <c r="C27" s="19">
         <v>10</v>
       </c>
-      <c r="D27" s="20">
+      <c r="D27" s="19">
         <v>10</v>
       </c>
-      <c r="E27" s="20">
+      <c r="E27" s="19">
         <v>10</v>
       </c>
-      <c r="F27" s="20">
-        <v>0</v>
-      </c>
-      <c r="G27" s="20">
-        <v>0</v>
-      </c>
-      <c r="H27" s="20">
-        <v>0</v>
-      </c>
-      <c r="I27" s="20">
+      <c r="F27" s="19">
+        <v>0</v>
+      </c>
+      <c r="G27" s="19">
+        <v>0</v>
+      </c>
+      <c r="H27" s="19">
+        <v>0</v>
+      </c>
+      <c r="I27" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B28" s="21">
+        <v>100</v>
+      </c>
+      <c r="B28" s="20">
         <v>420</v>
       </c>
-      <c r="C28" s="21">
+      <c r="C28" s="20">
         <v>420</v>
       </c>
-      <c r="D28" s="21">
+      <c r="D28" s="20">
         <v>420</v>
       </c>
-      <c r="E28" s="21">
+      <c r="E28" s="20">
         <v>420</v>
       </c>
-      <c r="F28" s="21">
+      <c r="F28" s="20">
         <v>700</v>
       </c>
-      <c r="G28" s="21">
+      <c r="G28" s="20">
         <v>700</v>
       </c>
-      <c r="H28" s="20">
+      <c r="H28" s="19">
         <v>520</v>
       </c>
-      <c r="I28" s="20">
+      <c r="I28" s="19">
         <v>520</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B29" s="17">
+        <v>99</v>
+      </c>
+      <c r="B29" s="16">
         <v>760</v>
       </c>
-      <c r="C29" s="17">
+      <c r="C29" s="16">
         <v>360</v>
       </c>
-      <c r="D29" s="17">
+      <c r="D29" s="16">
         <v>640</v>
       </c>
-      <c r="E29" s="17">
+      <c r="E29" s="16">
         <v>640</v>
       </c>
-      <c r="F29" s="17">
+      <c r="F29" s="16">
         <v>870</v>
       </c>
-      <c r="G29" s="17">
+      <c r="G29" s="16">
         <v>870</v>
       </c>
-      <c r="H29" s="17">
+      <c r="H29" s="16">
         <v>360</v>
       </c>
-      <c r="I29" s="17">
+      <c r="I29" s="16">
         <v>360</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B30" s="17">
+        <v>98</v>
+      </c>
+      <c r="B30" s="16">
         <v>0.3</v>
       </c>
-      <c r="C30" s="17">
+      <c r="C30" s="16">
         <v>0.3</v>
       </c>
-      <c r="D30" s="17">
+      <c r="D30" s="16">
         <v>0.3</v>
       </c>
-      <c r="E30" s="17">
+      <c r="E30" s="16">
         <v>0.3</v>
       </c>
-      <c r="F30" s="17">
+      <c r="F30" s="16">
         <v>0.3</v>
       </c>
-      <c r="G30" s="17">
+      <c r="G30" s="16">
         <v>0.3</v>
       </c>
-      <c r="H30" s="17">
+      <c r="H30" s="16">
         <v>0.3</v>
       </c>
-      <c r="I30" s="17">
+      <c r="I30" s="16">
         <v>0.3</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B31" s="21">
+        <v>97</v>
+      </c>
+      <c r="B31" s="20">
         <v>0.2</v>
       </c>
-      <c r="C31" s="21">
+      <c r="C31" s="20">
         <v>0.2</v>
       </c>
-      <c r="D31" s="21">
+      <c r="D31" s="20">
         <v>0.2</v>
       </c>
-      <c r="E31" s="21">
+      <c r="E31" s="20">
         <v>0.2</v>
       </c>
-      <c r="F31" s="21">
+      <c r="F31" s="20">
         <v>0.2</v>
       </c>
-      <c r="G31" s="21">
+      <c r="G31" s="20">
         <v>0.2</v>
       </c>
-      <c r="H31" s="21">
+      <c r="H31" s="20">
         <v>0.2</v>
       </c>
-      <c r="I31" s="21">
+      <c r="I31" s="20">
         <v>0.2</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B32">
         <f>(2*B25*B24)/(B24+B25)</f>
@@ -2380,7 +2341,7 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B33">
         <f>0.68*(B17/B32*(1-B30^2)/((2/B4)+(1/B9)))^(1/3)</f>
@@ -2417,7 +2378,7 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B34">
         <f>0.68*(B16/B32*(1-B31^2)/((2/B4)+(1/B8)))^(1/3)</f>
@@ -2454,7 +2415,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B35">
         <v>10</v>
@@ -2483,7 +2444,7 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B36">
         <f>B7</f>
@@ -2520,7 +2481,7 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B37">
         <f>B9</f>
@@ -2557,7 +2518,7 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="4" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -2588,7 +2549,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B39">
         <f>B36/B12</f>
@@ -2623,7 +2584,7 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B40">
         <f>(PI()*B$4*B$35*(1-B31^2)*B$38*B$13)/B$32</f>
@@ -2660,7 +2621,7 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B41">
         <f>(PI()*B$4*B$35*(1-B30^2)*B$38*B$13)/B$32</f>
@@ -2697,7 +2658,7 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B42">
         <f>((4.2*B28)^2/1.1)*B40</f>
@@ -2734,7 +2695,7 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B43">
         <f>(7*B20)^2/1.1*B41</f>
@@ -2771,7 +2732,7 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B44">
         <f>PI()*B4*B35*(1-B31^2)/B32</f>
@@ -2808,7 +2769,7 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B45">
         <f>PI()*B4*B35*(1-0.3^2)/B32</f>
@@ -2845,7 +2806,7 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B46">
         <f>B44*B48</f>
@@ -2882,7 +2843,7 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B47">
         <f>B45*B49</f>
@@ -2919,7 +2880,7 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B48">
         <f>(1.8*B28)^2</f>
@@ -2956,7 +2917,7 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="4" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B49">
         <f>(3*B20)^2</f>
@@ -2993,7 +2954,7 @@
     </row>
     <row r="50" spans="1:9" ht="15" customHeight="1">
       <c r="A50" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B50">
         <v>0.28844568430102241</v>
@@ -3022,7 +2983,7 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B51">
         <v>0.3524312690488518</v>
@@ -3051,7 +3012,7 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B52">
         <v>0.29141001732272009</v>
@@ -3080,7 +3041,7 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B53">
         <v>0.30699574700308507</v>
@@ -3109,7 +3070,7 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B54">
         <v>0.32609131172459271</v>
@@ -3138,7 +3099,7 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B55">
         <v>0.34676199524840873</v>
@@ -3167,229 +3128,229 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="B56" s="28">
-        <f>(B50*B$64^(10/3))/(B$17^(10/3))</f>
+        <v>128</v>
+      </c>
+      <c r="B56" s="25">
+        <f t="shared" ref="B56:I57" si="31">(B50*B$64^(10/3))/(B$17^(10/3))</f>
         <v>113.41744596149626</v>
       </c>
-      <c r="C56" s="28">
-        <f>(C50*C$64^(10/3))/(C$17^(10/3))</f>
+      <c r="C56" s="25">
+        <f t="shared" si="31"/>
         <v>833.31725218046654</v>
       </c>
-      <c r="D56" s="28">
-        <f>(D50*D$64^(10/3))/(D$17^(10/3))</f>
+      <c r="D56" s="25">
+        <f t="shared" si="31"/>
         <v>243.28327454063728</v>
       </c>
-      <c r="E56" s="28">
-        <f>(E50*E$64^(10/3))/(E$17^(10/3))</f>
+      <c r="E56" s="25">
+        <f t="shared" si="31"/>
         <v>296.41400768054854</v>
       </c>
-      <c r="F56" s="28">
-        <f>(F50*F$64^(10/3))/(F$17^(10/3))</f>
+      <c r="F56" s="25">
+        <f t="shared" si="31"/>
         <v>819.21525606875491</v>
       </c>
-      <c r="G56" s="28">
-        <f>(G50*G$64^(10/3))/(G$17^(10/3))</f>
+      <c r="G56" s="25">
+        <f t="shared" si="31"/>
         <v>1.7649457662778753E-4</v>
       </c>
-      <c r="H56" s="28">
-        <f>(H50*H$64^(10/3))/(H$17^(10/3))</f>
+      <c r="H56" s="25">
+        <f t="shared" si="31"/>
         <v>490.05188723678293</v>
       </c>
-      <c r="I56" s="28">
-        <f>(I50*I$64^(10/3))/(I$17^(10/3))</f>
+      <c r="I56" s="25">
+        <f t="shared" si="31"/>
         <v>1.0557847857785165E-4</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="B57" s="28">
-        <f>(B51*B$64^(10/3))/(B$17^(10/3))</f>
+        <v>129</v>
+      </c>
+      <c r="B57" s="25">
+        <f t="shared" si="31"/>
         <v>138.57671162372117</v>
       </c>
-      <c r="C57" s="28">
-        <f>(C51*C$64^(10/3))/(C$17^(10/3))</f>
+      <c r="C57" s="25">
+        <f t="shared" si="31"/>
         <v>2328.0522350128654</v>
       </c>
-      <c r="D57" s="28">
-        <f>(D51*D$64^(10/3))/(D$17^(10/3))</f>
+      <c r="D57" s="25">
+        <f t="shared" si="31"/>
         <v>450.34016706657667</v>
       </c>
-      <c r="E57" s="28">
-        <f>(E51*E$64^(10/3))/(E$17^(10/3))</f>
+      <c r="E57" s="25">
+        <f t="shared" si="31"/>
         <v>431.0582058329806</v>
       </c>
-      <c r="F57" s="28">
-        <f>(F51*F$64^(10/3))/(F$17^(10/3))</f>
+      <c r="F57" s="25">
+        <f t="shared" si="31"/>
         <v>1071.191855925985</v>
       </c>
-      <c r="G57" s="28">
-        <f>(G51*G$64^(10/3))/(G$17^(10/3))</f>
+      <c r="G57" s="25">
+        <f t="shared" si="31"/>
         <v>2.3078128940865741E-4</v>
       </c>
-      <c r="H57" s="28">
-        <f>(H51*H$64^(10/3))/(H$17^(10/3))</f>
+      <c r="H57" s="25">
+        <f t="shared" si="31"/>
         <v>640.78346527416727</v>
       </c>
-      <c r="I57" s="28">
-        <f>(I51*I$64^(10/3))/(I$17^(10/3))</f>
+      <c r="I57" s="25">
+        <f t="shared" si="31"/>
         <v>1.3805261263855048E-4</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B58" s="28">
+        <v>130</v>
+      </c>
+      <c r="B58" s="25">
         <f>(B52*B$62^(10/3))/(B$16^(10/3))</f>
         <v>27.508590218238286</v>
       </c>
-      <c r="C58" s="28">
-        <f t="shared" ref="C58:I58" si="31">(C52*C$62^(10/3))/(C$16^(10/3))</f>
+      <c r="C58" s="25">
+        <f t="shared" ref="C58:I58" si="32">(C52*C$62^(10/3))/(C$16^(10/3))</f>
         <v>4.9746517960249812E-5</v>
       </c>
-      <c r="D58" s="28">
-        <f t="shared" si="31"/>
+      <c r="D58" s="25">
+        <f t="shared" si="32"/>
         <v>22.774354232295515</v>
       </c>
-      <c r="E58" s="28">
-        <f t="shared" si="31"/>
+      <c r="E58" s="25">
+        <f t="shared" si="32"/>
         <v>1.7215462233767611E-6</v>
       </c>
-      <c r="F58" s="28">
-        <f t="shared" si="31"/>
+      <c r="F58" s="25">
+        <f t="shared" si="32"/>
         <v>65.180320153746422</v>
       </c>
-      <c r="G58" s="28">
-        <f t="shared" si="31"/>
+      <c r="G58" s="25">
+        <f t="shared" si="32"/>
         <v>65.180320153746422</v>
       </c>
-      <c r="H58" s="28">
-        <f t="shared" si="31"/>
+      <c r="H58" s="25">
+        <f t="shared" si="32"/>
         <v>270.9599348299364</v>
       </c>
-      <c r="I58" s="28">
-        <f t="shared" si="31"/>
+      <c r="I58" s="25">
+        <f t="shared" si="32"/>
         <v>270.9599348299364</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="B59" s="28">
+        <v>131</v>
+      </c>
+      <c r="B59" s="25">
         <f>(B53*B$62^(10/3))/(B$16^(10/3))</f>
         <v>28.979855533577762</v>
       </c>
-      <c r="C59" s="28">
-        <f t="shared" ref="C59:I59" si="32">(C53*C$62^(10/3))/(C$16^(10/3))</f>
+      <c r="C59" s="25">
+        <f t="shared" ref="C59:I59" si="33">(C53*C$62^(10/3))/(C$16^(10/3))</f>
         <v>8.3722842236122922E-5</v>
       </c>
-      <c r="D59" s="28">
-        <f t="shared" si="32"/>
+      <c r="D59" s="25">
+        <f t="shared" si="33"/>
         <v>26.246847997920781</v>
       </c>
-      <c r="E59" s="28">
-        <f t="shared" si="32"/>
+      <c r="E59" s="25">
+        <f t="shared" si="33"/>
         <v>1.9458505753353258E-6</v>
       </c>
-      <c r="F59" s="28">
-        <f t="shared" si="32"/>
+      <c r="F59" s="25">
+        <f t="shared" si="33"/>
         <v>70.17373887232246</v>
       </c>
-      <c r="G59" s="28">
-        <f t="shared" si="32"/>
+      <c r="G59" s="25">
+        <f t="shared" si="33"/>
         <v>70.17373887232246</v>
       </c>
-      <c r="H59" s="28">
-        <f t="shared" si="32"/>
+      <c r="H59" s="25">
+        <f t="shared" si="33"/>
         <v>291.71798583938943</v>
       </c>
-      <c r="I59" s="28">
-        <f t="shared" si="32"/>
+      <c r="I59" s="25">
+        <f t="shared" si="33"/>
         <v>291.71798583938943</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="B60" s="28">
-        <f>(B54*B$63^(10/3))/(B$16^(10/3))</f>
+        <v>132</v>
+      </c>
+      <c r="B60" s="25">
+        <f t="shared" ref="B60:I61" si="34">(B54*B$63^(10/3))/(B$16^(10/3))</f>
         <v>33.188236940419529</v>
       </c>
-      <c r="C60" s="28">
-        <f>(C54*C$63^(10/3))/(C$16^(10/3))</f>
+      <c r="C60" s="25">
+        <f t="shared" si="34"/>
         <v>2.3840485455620605E-4</v>
       </c>
-      <c r="D60" s="28">
-        <f>(D54*D$63^(10/3))/(D$16^(10/3))</f>
+      <c r="D60" s="25">
+        <f t="shared" si="34"/>
         <v>12.143948916517607</v>
       </c>
-      <c r="E60" s="28">
-        <f>(E54*E$63^(10/3))/(E$16^(10/3))</f>
+      <c r="E60" s="25">
+        <f t="shared" si="34"/>
         <v>7.3245114633579287E-6</v>
       </c>
-      <c r="F60" s="28">
-        <f>(F54*F$63^(10/3))/(F$16^(10/3))</f>
+      <c r="F60" s="25">
+        <f t="shared" si="34"/>
         <v>122.05177651855068</v>
       </c>
-      <c r="G60" s="28">
-        <f>(G54*G$63^(10/3))/(G$16^(10/3))</f>
+      <c r="G60" s="25">
+        <f t="shared" si="34"/>
         <v>122.05177651855068</v>
       </c>
-      <c r="H60" s="28">
-        <f>(H54*H$63^(10/3))/(H$16^(10/3))</f>
+      <c r="H60" s="25">
+        <f t="shared" si="34"/>
         <v>507.3792416689073</v>
       </c>
-      <c r="I60" s="28">
-        <f>(I54*I$63^(10/3))/(I$16^(10/3))</f>
+      <c r="I60" s="25">
+        <f t="shared" si="34"/>
         <v>507.3792416689073</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B61">
-        <f>(B55*B$63^(10/3))/(B$16^(10/3))</f>
+        <f t="shared" si="34"/>
         <v>35.292014372822351</v>
       </c>
       <c r="C61">
-        <f>(C55*C$63^(10/3))/(C$16^(10/3))</f>
+        <f t="shared" si="34"/>
         <v>3.2122379696036455E-4</v>
       </c>
       <c r="D61">
-        <f>(D55*D$63^(10/3))/(D$16^(10/3))</f>
+        <f t="shared" si="34"/>
         <v>15.429556756522256</v>
       </c>
       <c r="E61">
-        <f>(E55*E$63^(10/3))/(E$16^(10/3))</f>
+        <f t="shared" si="34"/>
         <v>8.0719293643547873E-6</v>
       </c>
       <c r="F61">
-        <f>(F55*F$63^(10/3))/(F$16^(10/3))</f>
+        <f t="shared" si="34"/>
         <v>131.61319257812892</v>
       </c>
       <c r="G61">
-        <f>(G55*G$63^(10/3))/(G$16^(10/3))</f>
+        <f t="shared" si="34"/>
         <v>131.61319257812892</v>
       </c>
       <c r="H61">
-        <f>(H55*H$63^(10/3))/(H$16^(10/3))</f>
+        <f t="shared" si="34"/>
         <v>547.12683214213871</v>
       </c>
       <c r="I61">
-        <f>(I55*I$63^(10/3))/(I$16^(10/3))</f>
+        <f t="shared" si="34"/>
         <v>547.12683214213871</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B62">
         <v>117384.40741471344</v>
@@ -3418,7 +3379,7 @@
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B63">
         <v>120064.53438319845</v>
@@ -3447,7 +3408,7 @@
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B64">
         <v>120064.53438319845</v>
@@ -3476,192 +3437,192 @@
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B65">
         <f>B18*4/6400000</f>
         <v>6.25E-2</v>
       </c>
       <c r="C65">
-        <f t="shared" ref="C65:I65" si="33">C18*4/6400000</f>
+        <f t="shared" ref="C65:I65" si="35">C18*4/6400000</f>
         <v>6.25E-2</v>
       </c>
       <c r="D65">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>6.25E-2</v>
       </c>
       <c r="E65">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>6.25E-2</v>
       </c>
       <c r="F65">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>6.25E-2</v>
       </c>
       <c r="G65">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>6.25E-2</v>
       </c>
       <c r="H65">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>6.25E-2</v>
       </c>
       <c r="I65">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>6.25E-2</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B66">
         <f>10000000 /B4/6400000</f>
         <v>3.4722222222222225E-3</v>
       </c>
       <c r="C66">
-        <f t="shared" ref="C66:I66" si="34">10000000 /C4/6400000</f>
+        <f t="shared" ref="C66:I66" si="36">10000000 /C4/6400000</f>
         <v>3.4722222222222225E-3</v>
       </c>
       <c r="D66">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>3.4722222222222225E-3</v>
       </c>
       <c r="E66">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>3.4722222222222225E-3</v>
       </c>
       <c r="F66">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>3.4722222222222225E-3</v>
       </c>
       <c r="G66">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>3.4722222222222225E-3</v>
       </c>
       <c r="H66">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>3.4722222222222225E-3</v>
       </c>
       <c r="I66">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>3.4722222222222225E-3</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B67">
         <f>B$46*B$73/(1.1*(B75^(3/10)))</f>
         <v>67927.006632551129</v>
       </c>
       <c r="C67">
-        <f t="shared" ref="C67:I67" si="35">C$46*C$73/(1.1*(C75^(3/10)))</f>
+        <f t="shared" ref="C67:I67" si="37">C$46*C$73/(1.1*(C75^(3/10)))</f>
         <v>3673951.7635904369</v>
       </c>
       <c r="D67">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>79894.261860556071</v>
       </c>
       <c r="E67">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>10938903.816847701</v>
       </c>
       <c r="F67">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>44296.779234658927</v>
       </c>
       <c r="G67">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>44296.779234658927</v>
       </c>
       <c r="H67">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>549301.19444984011</v>
       </c>
       <c r="I67">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>549301.19444984011</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B68">
         <f>B$46*B$73/(1.1*(B76^(3/10)))</f>
         <v>64207.790055707337</v>
       </c>
       <c r="C68">
-        <f t="shared" ref="C68:I68" si="36">C$46*C$73/(1.1*(C76^(3/10)))</f>
+        <f t="shared" ref="C68:I68" si="38">C$46*C$73/(1.1*(C76^(3/10)))</f>
         <v>2295978.0292876028</v>
       </c>
       <c r="D68">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>96480.918783783243</v>
       </c>
       <c r="E68">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>7084607.7712272303</v>
       </c>
       <c r="F68">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>36698.12415290135</v>
       </c>
       <c r="G68">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>36698.12415290135</v>
       </c>
       <c r="H68">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>455074.2464699297</v>
       </c>
       <c r="I68">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>455074.2464699297</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B69">
         <f>B47*B74/(1.1*(B77^(3/10)))</f>
         <v>14100.398295485946</v>
       </c>
       <c r="C69">
-        <f t="shared" ref="C69:I69" si="37">C47*C74/(1.1*(C77^(3/10)))</f>
+        <f t="shared" ref="C69:I69" si="39">C47*C74/(1.1*(C77^(3/10)))</f>
         <v>2392.4739470913896</v>
       </c>
       <c r="D69">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>9030.9060985594551</v>
       </c>
       <c r="E69">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>8511.2899449900906</v>
       </c>
       <c r="F69">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>13525.114236038917</v>
       </c>
       <c r="G69">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1352511.4236038916</v>
       </c>
       <c r="H69">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>3366.6576458050927</v>
       </c>
       <c r="I69">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>336665.76458050928</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B70">
         <f>(0.005/B10)^(1/3)</f>
@@ -3696,7 +3657,7 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -3709,29 +3670,29 @@
         <v>1</v>
       </c>
       <c r="E71">
-        <f t="shared" ref="E71:I71" si="38">E38</f>
+        <f t="shared" ref="E71:I71" si="40">E38</f>
         <v>1</v>
       </c>
       <c r="F71">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>0.93571428571428561</v>
       </c>
       <c r="G71">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>0.93571428571428561</v>
       </c>
       <c r="H71">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>0.85</v>
       </c>
       <c r="I71">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>0.85</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -3761,186 +3722,186 @@
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B73">
-        <f>B71*B$70*B$5*1</f>
+        <f t="shared" ref="B73:I73" si="41">B71*B$70*B$5*1</f>
         <v>1</v>
       </c>
       <c r="C73">
-        <f>C71*C$70*C$5*1</f>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="D73">
-        <f>D71*D$70*D$5*1</f>
+        <f t="shared" si="41"/>
         <v>0.94103602888102855</v>
       </c>
       <c r="E73">
-        <f>E71*E$70*E$5*1</f>
+        <f t="shared" si="41"/>
         <v>0.94103602888102855</v>
       </c>
       <c r="F73">
-        <f>F71*F$70*F$5*1</f>
+        <f t="shared" si="41"/>
         <v>0.93571428571428561</v>
       </c>
       <c r="G73">
-        <f>G71*G$70*G$5*1</f>
+        <f t="shared" si="41"/>
         <v>0.93571428571428561</v>
       </c>
       <c r="H73">
-        <f>H71*H$70*H$5*1</f>
+        <f t="shared" si="41"/>
         <v>0.85</v>
       </c>
       <c r="I73">
-        <f>I71*I$70*I$5*1</f>
+        <f t="shared" si="41"/>
         <v>0.85</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B74">
         <f>B72*B$70*B$5*1</f>
         <v>1</v>
       </c>
       <c r="C74">
-        <f t="shared" ref="C74:I74" si="39">C72*C$70*C$5*1</f>
+        <f t="shared" ref="C74:I74" si="42">C72*C$70*C$5*1</f>
         <v>1</v>
       </c>
       <c r="D74">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0.94103602888102855</v>
       </c>
       <c r="E74">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0.94103602888102855</v>
       </c>
       <c r="F74">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>1</v>
       </c>
       <c r="G74">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>1</v>
       </c>
       <c r="H74">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>1</v>
       </c>
       <c r="I74">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="29" t="s">
-        <v>150</v>
+      <c r="A75" s="26" t="s">
+        <v>146</v>
       </c>
       <c r="B75">
         <f>(B$66*B58)</f>
         <v>9.5515938257771826E-2</v>
       </c>
       <c r="C75">
-        <f t="shared" ref="C75:I75" si="40">(C$66*C58)</f>
+        <f t="shared" ref="C75:I75" si="43">(C$66*C58)</f>
         <v>1.727309651397563E-7</v>
       </c>
       <c r="D75">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>7.9077618862137211E-2</v>
       </c>
       <c r="E75">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>5.9775910533915325E-9</v>
       </c>
       <c r="F75">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>0.2263205560893973</v>
       </c>
       <c r="G75">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>0.2263205560893973</v>
       </c>
       <c r="H75">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>0.94083310704839029</v>
       </c>
       <c r="I75">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>0.94083310704839029</v>
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="29" t="s">
-        <v>151</v>
+      <c r="A76" s="26" t="s">
+        <v>147</v>
       </c>
       <c r="B76">
         <f>(B$66*B60)</f>
         <v>0.11523693382090115</v>
       </c>
       <c r="C76">
-        <f t="shared" ref="C76:I76" si="41">(C$66*C60)</f>
+        <f t="shared" ref="C76:I76" si="44">(C$66*C60)</f>
         <v>8.2779463387571555E-7</v>
       </c>
       <c r="D76">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>4.2166489293463914E-2</v>
       </c>
       <c r="E76">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>2.5432331469992809E-8</v>
       </c>
       <c r="F76">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>0.42379089068941211</v>
       </c>
       <c r="G76">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>0.42379089068941211</v>
       </c>
       <c r="H76">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>1.7617334780170393</v>
       </c>
       <c r="I76">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>1.7617334780170393</v>
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="29" t="s">
-        <v>152</v>
+      <c r="A77" s="26" t="s">
+        <v>148</v>
       </c>
       <c r="B77">
         <f>(B65*B56)</f>
         <v>7.088590372593516</v>
       </c>
       <c r="C77">
-        <f t="shared" ref="C77:I77" si="42">(C65*C56)</f>
+        <f t="shared" ref="C77:I77" si="45">(C65*C56)</f>
         <v>52.082328261279159</v>
       </c>
       <c r="D77">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>15.20520465878983</v>
       </c>
       <c r="E77">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>18.525875480034284</v>
       </c>
       <c r="F77">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>51.200953504297182</v>
       </c>
       <c r="G77">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>1.1030911039236721E-5</v>
       </c>
       <c r="H77">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>30.628242952298933</v>
       </c>
       <c r="I77">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>6.598654911115728E-6</v>
       </c>
     </row>
@@ -3963,7 +3924,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Note" prompt="If the desired material does not figrue on the list, please add it as well as its following parameters to the list in the worksheet &quot;rail and wheel materials&quot;">
           <x14:formula1>
-            <xm:f>rail_materials!$A$3:$A$9</xm:f>
+            <xm:f>rail_materials!$A$2:$A$8</xm:f>
           </x14:formula1>
           <xm:sqref>B15:I15</xm:sqref>
         </x14:dataValidation>
@@ -3988,10 +3949,10 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C1">
         <v>24.9397924881983</v>
@@ -4020,10 +3981,10 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C2">
         <v>0.397534327540081</v>
@@ -4052,10 +4013,10 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C3">
         <v>310.53423258511901</v>
@@ -4084,10 +4045,10 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C4">
         <v>0.43852951083798603</v>
@@ -4116,10 +4077,10 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C5">
         <v>9592.8821295104699</v>
@@ -4148,10 +4109,10 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C6">
         <v>6.9859353305379797</v>
@@ -4180,10 +4141,10 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C7">
         <v>0.36032232455732299</v>
@@ -4212,10 +4173,10 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C8">
         <v>235.360704664796</v>
@@ -4244,10 +4205,10 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C9">
         <v>3620.8448324163101</v>
@@ -4276,10 +4237,10 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C10">
         <v>1.13373577673032</v>
@@ -4308,10 +4269,10 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C11">
         <v>0.67575877439752896</v>
@@ -4340,10 +4301,10 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C12">
         <v>3.8387980542432998</v>
@@ -4372,10 +4333,10 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B13" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C13">
         <v>0.82317441160238602</v>
@@ -4404,10 +4365,10 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B14" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C14">
         <v>2351.0358557609202</v>
@@ -4436,10 +4397,10 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B15" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C15">
         <v>479.56427978543297</v>
@@ -4468,10 +4429,10 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B16" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C16">
         <v>1.5209241133552001</v>
@@ -4500,10 +4461,10 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B17" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C17">
         <v>148.023377589456</v>
@@ -4537,10 +4498,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I9"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -4550,58 +4511,82 @@
     <col min="4" max="4" width="11.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="56.25" customHeight="1">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>83</v>
+      <c r="C2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0</v>
+      </c>
+      <c r="E2" s="6">
+        <v>360</v>
+      </c>
+      <c r="F2" s="6">
+        <v>125</v>
+      </c>
+      <c r="G2" s="6">
+        <v>210000</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D3" s="6">
         <v>0</v>
       </c>
       <c r="E3" s="6">
-        <v>360</v>
+        <v>410</v>
       </c>
       <c r="F3" s="6">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="G3" s="6">
         <v>210000</v>
@@ -4615,22 +4600,22 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D4" s="6">
         <v>0</v>
       </c>
       <c r="E4" s="6">
-        <v>410</v>
+        <v>520</v>
       </c>
       <c r="F4" s="6">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="G4" s="6">
         <v>210000</v>
@@ -4644,22 +4629,22 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>35</v>
+      <c r="C5" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="D5" s="6">
         <v>0</v>
       </c>
       <c r="E5" s="6">
-        <v>520</v>
+        <v>760</v>
       </c>
       <c r="F5" s="6">
-        <v>175</v>
+        <v>225</v>
       </c>
       <c r="G5" s="6">
         <v>210000</v>
@@ -4673,22 +4658,22 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>25</v>
-      </c>
       <c r="C6" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D6" s="6">
         <v>0</v>
       </c>
       <c r="E6" s="6">
-        <v>760</v>
+        <v>520</v>
       </c>
       <c r="F6" s="6">
-        <v>225</v>
+        <v>155</v>
       </c>
       <c r="G6" s="6">
         <v>210000</v>
@@ -4702,22 +4687,22 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>30</v>
+        <v>24</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="D7" s="6">
         <v>0</v>
       </c>
       <c r="E7" s="6">
-        <v>520</v>
+        <v>640</v>
       </c>
       <c r="F7" s="6">
-        <v>155</v>
+        <v>190</v>
       </c>
       <c r="G7" s="6">
         <v>210000</v>
@@ -4731,10 +4716,10 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>31</v>
@@ -4743,10 +4728,10 @@
         <v>0</v>
       </c>
       <c r="E8" s="6">
-        <v>640</v>
+        <v>870</v>
       </c>
       <c r="F8" s="6">
-        <v>190</v>
+        <v>260</v>
       </c>
       <c r="G8" s="6">
         <v>210000</v>
@@ -4755,35 +4740,6 @@
         <v>0</v>
       </c>
       <c r="I8" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="6">
-        <v>0</v>
-      </c>
-      <c r="E9" s="6">
-        <v>870</v>
-      </c>
-      <c r="F9" s="6">
-        <v>260</v>
-      </c>
-      <c r="G9" s="6">
-        <v>210000</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="I9" s="6">
         <v>0</v>
       </c>
     </row>
@@ -4799,10 +4755,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -4814,62 +4770,79 @@
     <col min="5" max="5" width="9.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="48.75" customHeight="1">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
+      <c r="B1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="9" t="s">
+      <c r="A2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>96</v>
+      <c r="C2" s="14">
+        <v>1.6552</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5">
+        <v>520</v>
+      </c>
+      <c r="G2" s="5">
+        <v>1000</v>
+      </c>
+      <c r="H2" s="5">
+        <v>210000</v>
+      </c>
+      <c r="I2" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="J2" s="21">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="14">
-        <v>1.6552</v>
+        <v>35</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="13">
+        <v>0.70599999999999996</v>
       </c>
       <c r="D3" s="5">
         <v>0</v>
@@ -4877,31 +4850,31 @@
       <c r="E3" s="5">
         <v>0</v>
       </c>
-      <c r="F3" s="5">
-        <v>520</v>
-      </c>
-      <c r="G3" s="5">
-        <v>1000</v>
+      <c r="F3" s="12">
+        <v>600</v>
+      </c>
+      <c r="G3" s="12">
+        <v>210</v>
       </c>
       <c r="H3" s="5">
-        <v>210000</v>
+        <v>177000</v>
       </c>
       <c r="I3" s="12">
         <v>0.2</v>
       </c>
-      <c r="J3" s="22">
+      <c r="J3" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C4" s="13">
-        <v>0.70599999999999996</v>
+        <v>0.70699999999999996</v>
       </c>
       <c r="D4" s="5">
         <v>0</v>
@@ -4910,30 +4883,30 @@
         <v>0</v>
       </c>
       <c r="F4" s="12">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="G4" s="12">
-        <v>210</v>
+        <v>245</v>
       </c>
       <c r="H4" s="5">
-        <v>177000</v>
+        <v>180000</v>
       </c>
       <c r="I4" s="12">
         <v>0.2</v>
       </c>
-      <c r="J4" s="22">
+      <c r="J4" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="13">
-        <v>0.70699999999999996</v>
+        <v>1.7218</v>
       </c>
       <c r="D5" s="5">
         <v>0</v>
@@ -4942,30 +4915,30 @@
         <v>0</v>
       </c>
       <c r="F5" s="12">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="G5" s="12">
-        <v>245</v>
+        <v>190</v>
       </c>
       <c r="H5" s="5">
-        <v>180000</v>
+        <v>210000</v>
       </c>
       <c r="I5" s="12">
         <v>0.2</v>
       </c>
-      <c r="J5" s="22">
+      <c r="J5" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C6" s="13">
-        <v>1.7218</v>
+        <v>1.7224999999999999</v>
       </c>
       <c r="D6" s="5">
         <v>0</v>
@@ -4974,27 +4947,27 @@
         <v>0</v>
       </c>
       <c r="F6" s="12">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="G6" s="12">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="H6" s="5">
-        <v>210000</v>
+        <v>180000</v>
       </c>
       <c r="I6" s="12">
         <v>0.2</v>
       </c>
-      <c r="J6" s="22">
+      <c r="J6" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7" s="13">
         <v>1.7224999999999999</v>
@@ -5006,30 +4979,30 @@
         <v>0</v>
       </c>
       <c r="F7" s="12">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="G7" s="12">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="H7" s="5">
-        <v>180000</v>
+        <v>210000</v>
       </c>
       <c r="I7" s="12">
         <v>0.2</v>
       </c>
-      <c r="J7" s="22">
+      <c r="J7" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="13">
-        <v>1.7224999999999999</v>
+        <v>1.6956</v>
       </c>
       <c r="D8" s="5">
         <v>0</v>
@@ -5038,10 +5011,10 @@
         <v>0</v>
       </c>
       <c r="F8" s="12">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="G8" s="12">
-        <v>225</v>
+        <v>295</v>
       </c>
       <c r="H8" s="5">
         <v>210000</v>
@@ -5049,31 +5022,31 @@
       <c r="I8" s="12">
         <v>0.2</v>
       </c>
-      <c r="J8" s="22">
+      <c r="J8" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="5" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="13">
-        <v>1.6956</v>
+        <v>1.7224999999999999</v>
       </c>
       <c r="D9" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F9" s="12">
-        <v>1000</v>
+        <v>420</v>
       </c>
       <c r="G9" s="12">
-        <v>295</v>
+        <v>255</v>
       </c>
       <c r="H9" s="5">
         <v>210000</v>
@@ -5081,78 +5054,43 @@
       <c r="I9" s="12">
         <v>0.2</v>
       </c>
-      <c r="J9" s="22">
+      <c r="J9" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="13">
+      <c r="A10" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="24">
         <v>1.7224999999999999</v>
       </c>
-      <c r="D10" s="5">
-        <v>1</v>
-      </c>
-      <c r="E10" s="5">
+      <c r="D10" s="21">
+        <v>1</v>
+      </c>
+      <c r="E10" s="22">
         <v>10</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="21">
         <v>420</v>
       </c>
-      <c r="G10" s="12">
-        <v>255</v>
-      </c>
-      <c r="H10" s="5">
+      <c r="G10" s="21">
+        <v>250</v>
+      </c>
+      <c r="H10" s="22">
         <v>210000</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="21">
         <v>0.2</v>
       </c>
-      <c r="J10" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="25">
-        <v>1.7224999999999999</v>
-      </c>
-      <c r="D11" s="22">
-        <v>1</v>
-      </c>
-      <c r="E11" s="23">
-        <v>10</v>
-      </c>
-      <c r="F11" s="22">
-        <v>420</v>
-      </c>
-      <c r="G11" s="22">
-        <v>250</v>
-      </c>
-      <c r="H11" s="23">
-        <v>210000</v>
-      </c>
-      <c r="I11" s="22">
-        <v>0.2</v>
-      </c>
-      <c r="J11" s="22">
+      <c r="J10" s="21">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:I1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
